--- a/data/trans_orig/P33B5_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B5_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>2216</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6389</v>
+        <v>5902</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.006950815018646965</v>
+        <v>0.006950815018646966</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002088152949713257</v>
+        <v>0.002051182909775903</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02003785883397835</v>
+        <v>0.01851060133567856</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -762,19 +762,19 @@
         <v>3508</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1488</v>
+        <v>1465</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6765</v>
+        <v>6873</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01110018662245104</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004709155807113356</v>
+        <v>0.004634871917013324</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02140420738506814</v>
+        <v>0.02174700038920847</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -783,19 +783,19 @@
         <v>5725</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2844</v>
+        <v>2702</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10277</v>
+        <v>10357</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009016401442278268</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004479815609902537</v>
+        <v>0.004255673531783985</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01618705008790645</v>
+        <v>0.01631201887706587</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>2304</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6276</v>
+        <v>6444</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.007227188550345939</v>
+        <v>0.00722718855034594</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002118443811324741</v>
+        <v>0.002110688247481324</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01968454386497992</v>
+        <v>0.02021152341002724</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -833,19 +833,19 @@
         <v>4470</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2094</v>
+        <v>2066</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8676</v>
+        <v>7812</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01414210286727526</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.006625045639557261</v>
+        <v>0.006536520771229264</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02744892428552103</v>
+        <v>0.02471529545958055</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -854,19 +854,19 @@
         <v>6774</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3527</v>
+        <v>3440</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11596</v>
+        <v>11835</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01066948162444135</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.005555599724483346</v>
+        <v>0.005418851987022079</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01826398550298684</v>
+        <v>0.01864050248261733</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>4007</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1179</v>
+        <v>1040</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10033</v>
+        <v>10096</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.0125674883936941</v>
+        <v>0.01256748839369411</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.003696278345607083</v>
+        <v>0.003260584795192408</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03146629336393795</v>
+        <v>0.03166379515358401</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -904,19 +904,19 @@
         <v>4940</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2022</v>
+        <v>2447</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8925</v>
+        <v>8599</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01562981753472228</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.006398215523863621</v>
+        <v>0.007740619508697982</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02823856853390186</v>
+        <v>0.02720611240340633</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>14</v>
@@ -925,19 +925,19 @@
         <v>8947</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4988</v>
+        <v>4965</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>15985</v>
+        <v>15617</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01409193741932468</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.007856370456758008</v>
+        <v>0.007819963305633542</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02517646484376693</v>
+        <v>0.0245978357849428</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>310317</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>303351</v>
+        <v>303097</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>314593</v>
+        <v>314244</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.9732545080373127</v>
+        <v>0.9732545080373131</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.951405603407832</v>
+        <v>0.9506088932804594</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.986663807756363</v>
+        <v>0.9855685867758328</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>512</v>
@@ -975,19 +975,19 @@
         <v>303143</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>297028</v>
+        <v>297206</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>307664</v>
+        <v>307410</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9591278929755515</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9397805646982161</v>
+        <v>0.9403449626347988</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9734326451073357</v>
+        <v>0.9726299282565488</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>833</v>
@@ -996,19 +996,19 @@
         <v>613460</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>605033</v>
+        <v>604866</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>619693</v>
+        <v>619878</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9662221795139558</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9529491841966465</v>
+        <v>0.9526853319434433</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.976039656932233</v>
+        <v>0.976330926895849</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>13949</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7625</v>
+        <v>7733</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>25070</v>
+        <v>24698</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02633662327057206</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01439529019439029</v>
+        <v>0.0146002778327152</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04733189366413387</v>
+        <v>0.04662976523724437</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>55</v>
@@ -1121,19 +1121,19 @@
         <v>37826</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>29227</v>
+        <v>29225</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>48446</v>
+        <v>48905</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.06929174918572839</v>
+        <v>0.06929174918572842</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05353970362025404</v>
+        <v>0.05353606134957995</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08874599231319617</v>
+        <v>0.08958550530836648</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>67</v>
@@ -1142,19 +1142,19 @@
         <v>51776</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>40338</v>
+        <v>40264</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>64644</v>
+        <v>65604</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.04813845321628803</v>
+        <v>0.04813845321628802</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03750388134857389</v>
+        <v>0.03743544218405125</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06010270792048432</v>
+        <v>0.06099562492737634</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>9906</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4657</v>
+        <v>4900</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18180</v>
+        <v>19839</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01870288368606224</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008792144568018566</v>
+        <v>0.009250955797321781</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03432356075572015</v>
+        <v>0.03745681612391962</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -1192,19 +1192,19 @@
         <v>28943</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21083</v>
+        <v>20533</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38140</v>
+        <v>38204</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.05301989348158111</v>
+        <v>0.05301989348158113</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03862054062682072</v>
+        <v>0.03761412684284912</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06986579403882266</v>
+        <v>0.06998391959569474</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>52</v>
@@ -1213,19 +1213,19 @@
         <v>38850</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29441</v>
+        <v>29631</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49509</v>
+        <v>52940</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03612044668622993</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02737306296498858</v>
+        <v>0.02754920417365267</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0460305749231746</v>
+        <v>0.04922114193515763</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>44750</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>31457</v>
+        <v>32795</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>59299</v>
+        <v>59789</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08448850669860737</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05939095490335006</v>
+        <v>0.0619179222392793</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1119566883472176</v>
+        <v>0.1128819036983135</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>83</v>
@@ -1263,19 +1263,19 @@
         <v>55876</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>44623</v>
+        <v>43848</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>70345</v>
+        <v>68797</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1023561308442457</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08174283267867533</v>
+        <v>0.08032210709362622</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1288610824855182</v>
+        <v>0.1260262773711118</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>121</v>
@@ -1284,19 +1284,19 @@
         <v>100626</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>83114</v>
+        <v>84693</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>120779</v>
+        <v>119929</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09355720094307532</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0772756846205483</v>
+        <v>0.07874353735543274</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1122945204788294</v>
+        <v>0.1115041911866054</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>461054</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>442216</v>
+        <v>443291</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>476979</v>
+        <v>476007</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8704719863447583</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8349056722826528</v>
+        <v>0.8369354835838093</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9005377279360139</v>
+        <v>0.8987038320316871</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>535</v>
@@ -1334,19 +1334,19 @@
         <v>423252</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>404206</v>
+        <v>403039</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>437941</v>
+        <v>439238</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.7753322264884447</v>
+        <v>0.7753322264884449</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7404421423382911</v>
+        <v>0.7383054297417296</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8022398947931031</v>
+        <v>0.8046150109539347</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>857</v>
@@ -1355,19 +1355,19 @@
         <v>884306</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>861068</v>
+        <v>859422</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>907225</v>
+        <v>905360</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8221838991544068</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8005775081593965</v>
+        <v>0.7990476363945415</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8434928033408601</v>
+        <v>0.8417579952042387</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>4562</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1977</v>
+        <v>1884</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9578</v>
+        <v>8894</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01443850479103399</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.00625495540463205</v>
+        <v>0.005962816965547634</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03030946904106136</v>
+        <v>0.0281470740933499</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>30</v>
@@ -1480,19 +1480,19 @@
         <v>18031</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12294</v>
+        <v>12153</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25347</v>
+        <v>25283</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.05059445072193031</v>
+        <v>0.05059445072193032</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03449617534314494</v>
+        <v>0.03410229365358575</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07112403755855531</v>
+        <v>0.07094250527047345</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>37</v>
@@ -1501,19 +1501,19 @@
         <v>22593</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>16230</v>
+        <v>16037</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>30258</v>
+        <v>31218</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.03360237748658257</v>
+        <v>0.03360237748658256</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02413879688858958</v>
+        <v>0.02385112935124405</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04500188267365018</v>
+        <v>0.0464288486537402</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>2474</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>715</v>
+        <v>609</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6244</v>
+        <v>6692</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.007828025922859701</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.002261427175478732</v>
+        <v>0.001926674345033474</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01975972231115327</v>
+        <v>0.02117712737406103</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>16</v>
@@ -1551,19 +1551,19 @@
         <v>9086</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>5381</v>
+        <v>5363</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>14261</v>
+        <v>14307</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02549458473356938</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01509977155693929</v>
+        <v>0.01504968651019726</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.04001545901628278</v>
+        <v>0.04014620294298581</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>20</v>
@@ -1572,19 +1572,19 @@
         <v>11559</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>7406</v>
+        <v>7233</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>17168</v>
+        <v>17300</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01719189887100329</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01101433606669243</v>
+        <v>0.01075742588811567</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02553375311348155</v>
+        <v>0.02572912398715917</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>12760</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7223</v>
+        <v>7193</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21610</v>
+        <v>20209</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04037930676321175</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02285851915871031</v>
+        <v>0.022761710567653</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06838733119638978</v>
+        <v>0.06395462422343494</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -1622,19 +1622,19 @@
         <v>16969</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11372</v>
+        <v>11297</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24015</v>
+        <v>24535</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04761586913337681</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0319094600585921</v>
+        <v>0.03169896921081979</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06738489584804519</v>
+        <v>0.06884492089586929</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>42</v>
@@ -1643,19 +1643,19 @@
         <v>29729</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21098</v>
+        <v>22064</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>39645</v>
+        <v>41365</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.04421492927134074</v>
+        <v>0.04421492927134073</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03137859512728015</v>
+        <v>0.03281529214473546</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05896244466289236</v>
+        <v>0.06152043633702148</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>296197</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>286538</v>
+        <v>286723</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>302884</v>
+        <v>302793</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9373541625228946</v>
+        <v>0.9373541625228944</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9067869091711412</v>
+        <v>0.9073720170016125</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9585139182455256</v>
+        <v>0.9582266534532626</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>462</v>
@@ -1693,19 +1693,19 @@
         <v>312295</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>301898</v>
+        <v>301295</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>322081</v>
+        <v>321291</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8762950954111235</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8471217890149253</v>
+        <v>0.8454298410824755</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9037534242679567</v>
+        <v>0.9015371329583773</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>797</v>
@@ -1714,19 +1714,19 @@
         <v>608493</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>596048</v>
+        <v>593536</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>620711</v>
+        <v>619804</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9049907943710735</v>
+        <v>0.9049907943710734</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8864820771522853</v>
+        <v>0.882745325314935</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9231624641216379</v>
+        <v>0.9218133631413696</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>21590</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13872</v>
+        <v>13685</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>33056</v>
+        <v>34777</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0578584686299688</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03717691257116103</v>
+        <v>0.03667608671937762</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08858662689614206</v>
+        <v>0.09319899673370777</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>61</v>
@@ -1839,19 +1839,19 @@
         <v>32844</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>25928</v>
+        <v>25550</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>43194</v>
+        <v>42084</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.07783615757371259</v>
+        <v>0.07783615757371261</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06144657569953722</v>
+        <v>0.06055055053286048</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1023656228499287</v>
+        <v>0.09973358288640631</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>84</v>
@@ -1860,19 +1860,19 @@
         <v>54433</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>42791</v>
+        <v>42050</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>69834</v>
+        <v>68067</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.06846058586442413</v>
+        <v>0.06846058586442411</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05381853716629429</v>
+        <v>0.05288619363978623</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08782987906852179</v>
+        <v>0.0856070255803297</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>3710</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1095</v>
+        <v>1068</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10233</v>
+        <v>10726</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.009942844722411861</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002935393328324296</v>
+        <v>0.002861366460019322</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02742421077750742</v>
+        <v>0.02874384364106257</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>11</v>
@@ -1910,19 +1910,19 @@
         <v>6744</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3624</v>
+        <v>3525</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12268</v>
+        <v>12680</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01598271850673286</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.008587388329109788</v>
+        <v>0.008354894972826691</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02907469619738124</v>
+        <v>0.03005103875602997</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>15</v>
@@ -1931,19 +1931,19 @@
         <v>10454</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5750</v>
+        <v>6107</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>17351</v>
+        <v>18201</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01314819295478275</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.007231924965161039</v>
+        <v>0.007680644927842858</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02182247108898014</v>
+        <v>0.02289113997930523</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>15363</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8098</v>
+        <v>8080</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>25804</v>
+        <v>26467</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04117051952521861</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02170113315919176</v>
+        <v>0.02165276626264191</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06915284102882412</v>
+        <v>0.07092906970065782</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>56</v>
@@ -1981,19 +1981,19 @@
         <v>31827</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>23817</v>
+        <v>24326</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>41873</v>
+        <v>41580</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.07542668476985839</v>
+        <v>0.07542668476985841</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05644309967897227</v>
+        <v>0.0576503606656641</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09923340445841562</v>
+        <v>0.09854042402701538</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>70</v>
@@ -2002,19 +2002,19 @@
         <v>47190</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>35570</v>
+        <v>35585</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>59617</v>
+        <v>60383</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.05935019390844006</v>
+        <v>0.05935019390844005</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0447365431768014</v>
+        <v>0.04475491878716319</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07497994523750448</v>
+        <v>0.07594335484624073</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>332483</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>318051</v>
+        <v>316857</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>344881</v>
+        <v>344702</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8910281671224007</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8523527502409249</v>
+        <v>0.8491531555506235</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9242558220448442</v>
+        <v>0.9237743443965458</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>471</v>
@@ -2052,19 +2052,19 @@
         <v>350546</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>337496</v>
+        <v>338022</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>361468</v>
+        <v>361210</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8307544391496962</v>
+        <v>0.8307544391496964</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7998263758404698</v>
+        <v>0.8010730926422664</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8566390797726452</v>
+        <v>0.8560262305164767</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>722</v>
@@ -2073,19 +2073,19 @@
         <v>683030</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>663341</v>
+        <v>663775</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>700213</v>
+        <v>700734</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8590410272723531</v>
+        <v>0.859041027272353</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.834278470664076</v>
+        <v>0.8348249865001783</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8806521142491586</v>
+        <v>0.8813073549804706</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>3148</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1080</v>
+        <v>1113</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6931</v>
+        <v>6935</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01530712741777012</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.005253304820913624</v>
+        <v>0.005411387211228558</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03369814726408894</v>
+        <v>0.03371770968272784</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>13</v>
@@ -2198,19 +2198,19 @@
         <v>5234</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2868</v>
+        <v>3112</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8789</v>
+        <v>8849</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02307592894234274</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01264343508802132</v>
+        <v>0.01371929139939357</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03874687008520878</v>
+        <v>0.03901149616509138</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>18</v>
@@ -2219,19 +2219,19 @@
         <v>8382</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5186</v>
+        <v>5307</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>13305</v>
+        <v>13292</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01938156463611548</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01199048157802636</v>
+        <v>0.01227061237210836</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03076306050060547</v>
+        <v>0.03073492326284717</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>6367</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3362</v>
+        <v>3131</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10823</v>
+        <v>11416</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03095674075022552</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0163466208121988</v>
+        <v>0.01522540189699724</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05262465531434488</v>
+        <v>0.05550652701181839</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>30</v>
@@ -2269,19 +2269,19 @@
         <v>12081</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8131</v>
+        <v>8366</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16209</v>
+        <v>17217</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.05326071573124545</v>
+        <v>0.05326071573124544</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03584665248869189</v>
+        <v>0.03688358058364342</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07146123344671779</v>
+        <v>0.0759048766294492</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>41</v>
@@ -2290,19 +2290,19 @@
         <v>18447</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>13470</v>
+        <v>12933</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>24600</v>
+        <v>24356</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04265431668806758</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03114647084275728</v>
+        <v>0.02990285391123626</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05687918200927276</v>
+        <v>0.05631700556447058</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>58524</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>48189</v>
+        <v>47450</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>69276</v>
+        <v>69136</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2845615058056299</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2343097251738216</v>
+        <v>0.2307146011483875</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3368389741818301</v>
+        <v>0.3361587348813162</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>209</v>
@@ -2340,19 +2340,19 @@
         <v>85375</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>75992</v>
+        <v>75621</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>97000</v>
+        <v>95740</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3763961535847432</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3350288176829963</v>
+        <v>0.3333916845636019</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4276469081270012</v>
+        <v>0.422090536063763</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>296</v>
@@ -2361,19 +2361,19 @@
         <v>143900</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>128300</v>
+        <v>130626</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>159213</v>
+        <v>160863</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3327252419573835</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2966553816936421</v>
+        <v>0.3020345097487664</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3681320138892271</v>
+        <v>0.3719467864602697</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>137626</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>126550</v>
+        <v>126495</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>148961</v>
+        <v>148786</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.6691746260263745</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6153197150949175</v>
+        <v>0.6150518795355303</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7242909364840461</v>
+        <v>0.7234378799526775</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>239</v>
@@ -2411,19 +2411,19 @@
         <v>124133</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>112885</v>
+        <v>113215</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>134750</v>
+        <v>135393</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.5472672017416687</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4976776717611082</v>
+        <v>0.4991358393011526</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5940762705627911</v>
+        <v>0.5969111874606087</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>415</v>
@@ -2432,19 +2432,19 @@
         <v>261759</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>245306</v>
+        <v>243726</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>279256</v>
+        <v>276770</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.6052388767184333</v>
+        <v>0.6052388767184335</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.567197936318061</v>
+        <v>0.5635436030521297</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.645696880639133</v>
+        <v>0.6399485557645401</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>13782</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>9298</v>
+        <v>8785</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>20590</v>
+        <v>20427</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05091100633566008</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03434818910270284</v>
+        <v>0.03245046469061868</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07605881547602793</v>
+        <v>0.07545761525761754</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>76</v>
@@ -2557,19 +2557,19 @@
         <v>34208</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>26750</v>
+        <v>26800</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>42476</v>
+        <v>43328</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.1296969732305078</v>
+        <v>0.1296969732305077</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1014220280695355</v>
+        <v>0.1016107186817229</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1610475020770523</v>
+        <v>0.1642755221123323</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>102</v>
@@ -2578,19 +2578,19 @@
         <v>47990</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>39566</v>
+        <v>39270</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>58642</v>
+        <v>58478</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.08979123659464325</v>
+        <v>0.08979123659464326</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07403060170732445</v>
+        <v>0.07347709166651048</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.109723261249673</v>
+        <v>0.1094148483703108</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>2467</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>823</v>
+        <v>860</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5804</v>
+        <v>6327</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.009114447040442591</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.003040510466415632</v>
+        <v>0.003177179717537583</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0214404366772846</v>
+        <v>0.02337136256115699</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>23</v>
@@ -2628,19 +2628,19 @@
         <v>9595</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6142</v>
+        <v>6115</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>13886</v>
+        <v>14385</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.03637965827867271</v>
+        <v>0.03637965827867269</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02328665459520622</v>
+        <v>0.02318490740005532</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05264923979598639</v>
+        <v>0.05454015962167715</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>28</v>
@@ -2649,19 +2649,19 @@
         <v>12062</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>8085</v>
+        <v>7719</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>17429</v>
+        <v>17263</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02256960577977803</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01512704547458188</v>
+        <v>0.01444220333691389</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03261099370829802</v>
+        <v>0.03230004199400768</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>6689</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3624</v>
+        <v>3393</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>11987</v>
+        <v>11992</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02470761293382444</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01338723840599895</v>
+        <v>0.01253311227181233</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04428213141560766</v>
+        <v>0.04429713187283528</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>24</v>
@@ -2699,19 +2699,19 @@
         <v>11457</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>7259</v>
+        <v>7187</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>17307</v>
+        <v>17050</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.04343882809401959</v>
+        <v>0.04343882809401957</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02752223157746419</v>
+        <v>0.02724815531200887</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06561802221162978</v>
+        <v>0.06464496618568315</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>35</v>
@@ -2720,19 +2720,19 @@
         <v>18146</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>12505</v>
+        <v>13136</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>25564</v>
+        <v>25915</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03395131440963345</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02339664521734216</v>
+        <v>0.02457872285162168</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04783245300937389</v>
+        <v>0.0484885181331141</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>247769</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>239748</v>
+        <v>238938</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>254106</v>
+        <v>253780</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9152669336900728</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8856347876123922</v>
+        <v>0.8826432715481469</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9386759371051516</v>
+        <v>0.9374722915250933</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>337</v>
@@ -2770,19 +2770,19 @@
         <v>208490</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>198879</v>
+        <v>198205</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>217876</v>
+        <v>218010</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.7904845403968002</v>
+        <v>0.7904845403967999</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7540452745998629</v>
+        <v>0.7514886505573969</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.826071044775516</v>
+        <v>0.8265770393181689</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>666</v>
@@ -2791,19 +2791,19 @@
         <v>456259</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>443357</v>
+        <v>443354</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>467543</v>
+        <v>467255</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.8536878432159453</v>
+        <v>0.8536878432159454</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8295460898465638</v>
+        <v>0.8295415860069318</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8747996021197673</v>
+        <v>0.8742615560566459</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>32188</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>21887</v>
+        <v>22664</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>48014</v>
+        <v>48580</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0447917306636267</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03045815503027774</v>
+        <v>0.03153902045353341</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.06681518722952871</v>
+        <v>0.06760368621149795</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>83</v>
@@ -2916,19 +2916,19 @@
         <v>65099</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>51655</v>
+        <v>52020</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>80502</v>
+        <v>80250</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.08439145351161034</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.06696381709902449</v>
+        <v>0.06743685372155929</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1043596854882144</v>
+        <v>0.1040338694421815</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>112</v>
@@ -2937,19 +2937,19 @@
         <v>97286</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>80317</v>
+        <v>80751</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>119632</v>
+        <v>118946</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.06529300016808125</v>
+        <v>0.06529300016808127</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05390425771265925</v>
+        <v>0.05419534766196767</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.08029030258206105</v>
+        <v>0.07983016947598501</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>12325</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>5423</v>
+        <v>5894</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>26619</v>
+        <v>25297</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01715133817840038</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.007546364810230481</v>
+        <v>0.008201391238211583</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03704269529119487</v>
+        <v>0.0352032087050636</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>31</v>
@@ -2987,19 +2987,19 @@
         <v>24624</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>17154</v>
+        <v>17020</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>35714</v>
+        <v>35768</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.03192151368141941</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02223759079975766</v>
+        <v>0.02206361915630148</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04629854425570486</v>
+        <v>0.04636781094674775</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>40</v>
@@ -3008,19 +3008,19 @@
         <v>36949</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>25704</v>
+        <v>26045</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>50557</v>
+        <v>52286</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.02479804191362372</v>
+        <v>0.02479804191362373</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01725093577636441</v>
+        <v>0.0174800656200085</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.0339307968219844</v>
+        <v>0.03509148485881657</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>34210</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>23360</v>
+        <v>23302</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>49532</v>
+        <v>49382</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04760627507454703</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03250810537510943</v>
+        <v>0.03242702259095685</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06892757130097656</v>
+        <v>0.06871910842720073</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>74</v>
@@ -3058,19 +3058,19 @@
         <v>58042</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>45948</v>
+        <v>45378</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>73585</v>
+        <v>73832</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.07524400114801665</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.05956491809498195</v>
+        <v>0.05882707140152533</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.09539357714503897</v>
+        <v>0.09571289736358997</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>105</v>
@@ -3079,19 +3079,19 @@
         <v>92252</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>75392</v>
+        <v>76448</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>114640</v>
+        <v>114264</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.06191466993118785</v>
+        <v>0.06191466993118787</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.05059911974765016</v>
+        <v>0.05130741833344177</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.0769402299309484</v>
+        <v>0.07668728363398142</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>639882</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>619095</v>
+        <v>616636</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>657577</v>
+        <v>656777</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.8904506560834259</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.8615229598013493</v>
+        <v>0.8581017480149336</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9150748140300674</v>
+        <v>0.9139613648971159</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>771</v>
@@ -3129,19 +3129,19 @@
         <v>623623</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>602437</v>
+        <v>603396</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>643428</v>
+        <v>642688</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.8084430316589536</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.7809774781723415</v>
+        <v>0.7822207506250495</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.8341177232623401</v>
+        <v>0.8331574513293108</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1300</v>
@@ -3150,19 +3150,19 @@
         <v>1263506</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1229191</v>
+        <v>1232710</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1288017</v>
+        <v>1290337</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.8479942879871072</v>
+        <v>0.8479942879871073</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.8249644991242708</v>
+        <v>0.8273260567433692</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.8644451947477704</v>
+        <v>0.8660021931244579</v>
       </c>
     </row>
     <row r="38">
@@ -3254,19 +3254,19 @@
         <v>81097</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>65723</v>
+        <v>66518</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>98355</v>
+        <v>98547</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1016160655327008</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.08235277087761478</v>
+        <v>0.0833487238390645</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1232402161062034</v>
+        <v>0.1234812913512286</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>208</v>
@@ -3275,19 +3275,19 @@
         <v>136399</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>121131</v>
+        <v>120001</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>154307</v>
+        <v>154072</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.1642159738185763</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1458341153156292</v>
+        <v>0.1444738053633336</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.18577527211503</v>
+        <v>0.1854931654415234</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>306</v>
@@ -3296,19 +3296,19 @@
         <v>217496</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>195029</v>
+        <v>194225</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>242063</v>
+        <v>242014</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1335413118106507</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1197468965764474</v>
+        <v>0.1192528826211929</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1486250926568537</v>
+        <v>0.1485952679763957</v>
       </c>
     </row>
     <row r="40">
@@ -3325,19 +3325,19 @@
         <v>25491</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>17486</v>
+        <v>17667</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>34796</v>
+        <v>36165</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.03194022584334121</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.02191045677366398</v>
+        <v>0.02213769680192864</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.04359975991984432</v>
+        <v>0.0453153282366458</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>67</v>
@@ -3346,19 +3346,19 @@
         <v>45544</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>34509</v>
+        <v>35544</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>56763</v>
+        <v>57695</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.05483246268692239</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.04154699584002125</v>
+        <v>0.04279327079636543</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.06833895262568999</v>
+        <v>0.06946107737123582</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>101</v>
@@ -3367,19 +3367,19 @@
         <v>71035</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>57480</v>
+        <v>58528</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>86274</v>
+        <v>85896</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.04361500810894699</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.03529227359450041</v>
+        <v>0.03593609750824937</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.05297185246272611</v>
+        <v>0.05273990690112494</v>
       </c>
     </row>
     <row r="41">
@@ -3396,19 +3396,19 @@
         <v>51748</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>37086</v>
+        <v>38666</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>64753</v>
+        <v>66425</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.06484163936376139</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.04646949377481346</v>
+        <v>0.04844898553424706</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.08113671360103478</v>
+        <v>0.08323236454826412</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>98</v>
@@ -3417,19 +3417,19 @@
         <v>71351</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>59089</v>
+        <v>57009</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>85884</v>
+        <v>85726</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.08590221908252661</v>
+        <v>0.08590221908252663</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.07113987589069726</v>
+        <v>0.06863520505300377</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1033988410587943</v>
+        <v>0.1032083393936074</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>152</v>
@@ -3438,19 +3438,19 @@
         <v>123099</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>104098</v>
+        <v>103978</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>144817</v>
+        <v>144971</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.07558229718082217</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.06391527152251904</v>
+        <v>0.06384167602341265</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.0889168995107415</v>
+        <v>0.08901121806526639</v>
       </c>
     </row>
     <row r="42">
@@ -3467,19 +3467,19 @@
         <v>639736</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>618702</v>
+        <v>618771</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>661627</v>
+        <v>662236</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.8016020692601966</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.7752456573424108</v>
+        <v>0.7753328245467563</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.8290315940944271</v>
+        <v>0.8297945531956464</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>688</v>
@@ -3488,19 +3488,19 @@
         <v>577314</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>551624</v>
+        <v>552007</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>598326</v>
+        <v>598117</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.6950493444119747</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.6641198170898017</v>
+        <v>0.6645806442147316</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.7203457494016073</v>
+        <v>0.7200945071484695</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1264</v>
@@ -3509,19 +3509,19 @@
         <v>1217050</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1185681</v>
+        <v>1186056</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1246708</v>
+        <v>1250749</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.7472613828995801</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.7280005433495454</v>
+        <v>0.7282308119161626</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.7654709731382618</v>
+        <v>0.7679521853708613</v>
       </c>
     </row>
     <row r="43">
@@ -3613,19 +3613,19 @@
         <v>172532</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>149499</v>
+        <v>150048</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>197466</v>
+        <v>200839</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.04886643711933661</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.04234281677366329</v>
+        <v>0.04249811516494622</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.05592849082453459</v>
+        <v>0.05688378168231365</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>533</v>
@@ -3634,19 +3634,19 @@
         <v>333149</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>303753</v>
+        <v>305787</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>360946</v>
+        <v>364626</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.08924733764297782</v>
+        <v>0.08924733764297781</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.0813723168192271</v>
+        <v>0.08191744692324454</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.09669394483243431</v>
+        <v>0.09767958991812284</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>736</v>
@@ -3655,19 +3655,19 @@
         <v>505681</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>466862</v>
+        <v>469621</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>547502</v>
+        <v>545463</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.06961888422047754</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.06427447587132869</v>
+        <v>0.06465427983894033</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.07537652540486627</v>
+        <v>0.07509574853258745</v>
       </c>
     </row>
     <row r="45">
@@ -3684,19 +3684,19 @@
         <v>65044</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>52302</v>
+        <v>51183</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>83490</v>
+        <v>81454</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.01842243079680073</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.01481346765052791</v>
+        <v>0.01449648490077172</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.02364700176898017</v>
+        <v>0.02307024542996495</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>230</v>
@@ -3705,19 +3705,19 @@
         <v>141087</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>121649</v>
+        <v>123811</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>161467</v>
+        <v>161001</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.03779589062280903</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.03258849899837593</v>
+        <v>0.03316773547906216</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.04325546628031161</v>
+        <v>0.04313046702782954</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>309</v>
@@ -3726,19 +3726,19 @@
         <v>206131</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>182640</v>
+        <v>183535</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>230911</v>
+        <v>233457</v>
       </c>
       <c r="U45" s="6" t="n">
-        <v>0.02837878875295716</v>
+        <v>0.02837878875295715</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.02514473176998474</v>
+        <v>0.02526783390049835</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.03179029949372737</v>
+        <v>0.03214083822402205</v>
       </c>
     </row>
     <row r="46">
@@ -3755,19 +3755,19 @@
         <v>228051</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>201962</v>
+        <v>201799</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>259658</v>
+        <v>258633</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.0645908993858202</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.05720183343190734</v>
+        <v>0.05715552165040683</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.07354293755091827</v>
+        <v>0.07325284505302526</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>582</v>
@@ -3776,19 +3776,19 @@
         <v>335839</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>310146</v>
+        <v>308268</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>365520</v>
+        <v>364101</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.08996784031601962</v>
+        <v>0.08996784031601961</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.08308501803374528</v>
+        <v>0.08258187156024628</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.09791919623569414</v>
+        <v>0.09753920518478132</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>835</v>
@@ -3797,19 +3797,19 @@
         <v>563889</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>525678</v>
+        <v>523657</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>607689</v>
+        <v>603087</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.07763255069655364</v>
+        <v>0.07763255069655363</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.07237186985640735</v>
+        <v>0.07209372618635267</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.08366259311844754</v>
+        <v>0.08302899819761399</v>
       </c>
     </row>
     <row r="47">
@@ -3826,19 +3826,19 @@
         <v>3065066</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>3019790</v>
+        <v>3024151</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>3103794</v>
+        <v>3103369</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.8681202326980425</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.8552966181009051</v>
+        <v>0.8565317585411141</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.8790890977756893</v>
+        <v>0.8789686735404144</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>4015</v>
@@ -3847,19 +3847,19 @@
         <v>2922798</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>2876007</v>
+        <v>2878195</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>2963417</v>
+        <v>2964067</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.7829889314181935</v>
+        <v>0.7829889314181934</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.7704539241669758</v>
+        <v>0.7710401160576866</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.7938703829478587</v>
+        <v>0.7940445144877792</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>6854</v>
@@ -3868,19 +3868,19 @@
         <v>5987863</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>5930835</v>
+        <v>5931726</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>6040136</v>
+        <v>6045508</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.8243697763300118</v>
+        <v>0.8243697763300117</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.8165185343779093</v>
+        <v>0.8166410868833842</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.8315663617291668</v>
+        <v>0.8323058641075587</v>
       </c>
     </row>
     <row r="48">
